--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gordon\SMU\IS212\GitHub\project-g3t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58598C71-832E-4032-83C2-7F55720D3790}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5658152-BC70-46DE-9FD8-FB88233F5247}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="82">
   <si>
     <t>Person</t>
   </si>
@@ -274,12 +274,18 @@
   <si>
     <t>Code round 1 clearing logic 2nd half, PM Review Preparation, debug, deployment and update bug metrics, schedule</t>
   </si>
+  <si>
+    <t>PM Review</t>
+  </si>
+  <si>
+    <t>Amazon reads csv files differently from how our local machine reads it</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -309,12 +315,6 @@
       <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -403,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -423,6 +423,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -438,15 +444,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -685,21 +682,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="11"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="13"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -719,8 +716,8 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
@@ -761,7 +758,7 @@
       <c r="Z2" s="3"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -780,7 +777,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
@@ -797,7 +794,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
@@ -814,7 +811,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -833,7 +830,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="4" t="s">
         <v>18</v>
       </c>
@@ -850,7 +847,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
@@ -867,7 +864,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -886,7 +883,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
@@ -903,7 +900,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="4" t="s">
         <v>15</v>
       </c>
@@ -920,7 +917,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -939,7 +936,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="4" t="s">
         <v>18</v>
       </c>
@@ -956,7 +953,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="4" t="s">
         <v>15</v>
       </c>
@@ -973,7 +970,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -992,7 +989,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="4" t="s">
         <v>18</v>
       </c>
@@ -1009,7 +1006,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
@@ -10319,21 +10316,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="11"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="13"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -10353,8 +10350,8 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
@@ -10395,417 +10392,417 @@
       <c r="Z2" s="3"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="17" t="s">
+      <c r="I12" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="H13" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="17" t="s">
+      <c r="I13" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="H14" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="I14" s="17" t="s">
+      <c r="I14" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="H15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="17" t="s">
+      <c r="I15" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="17" t="s">
+      <c r="H16" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="I16" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="H17" s="17" t="s">
+      <c r="H17" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="I17" s="17" t="s">
+      <c r="I17" s="9" t="s">
         <v>47</v>
       </c>
     </row>
@@ -20085,16 +20082,16 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D16" sqref="D16"/>
+      <selection pane="topRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.28515625" style="8" customWidth="1"/>
     <col min="2" max="2" width="29.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" style="8" customWidth="1"/>
     <col min="4" max="4" width="32" style="8" customWidth="1"/>
     <col min="5" max="5" width="31" style="8" customWidth="1"/>
     <col min="6" max="6" width="30.85546875" style="8" customWidth="1"/>
@@ -20103,21 +20100,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="11"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="13"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -20137,8 +20134,8 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
@@ -20179,269 +20176,299 @@
       <c r="Z2" s="3"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="17"/>
+      <c r="E3" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-    </row>
-    <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
+      <c r="E4" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" spans="1:26" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="15"/>
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
+      <c r="E5" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="17"/>
+      <c r="E6" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-    </row>
-    <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
+      <c r="E7" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:26" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
       <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
+      <c r="E8" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="17"/>
+      <c r="E9" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
+      <c r="E10" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
+      <c r="E11" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="17"/>
+      <c r="E12" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-    </row>
-    <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
+      <c r="E13" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="1:26" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="15"/>
       <c r="B14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
+      <c r="E14" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="17"/>
+      <c r="E15" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
+      <c r="E16" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
+      <c r="E17" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Amey/Documents/GitHub/project-g3t4/metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53056A2-E6F9-5D4C-929A-54E5F48FE581}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D35BE5-8353-6845-B4F0-F0668CBD64D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="95">
   <si>
     <t>Person</t>
   </si>
@@ -278,13 +278,7 @@
     <t>PM Review and Iteration 2 Planning Meeting</t>
   </si>
   <si>
-    <t>Add session authentication to student and admin, and start coding Round 2 view bid</t>
-  </si>
-  <si>
     <t>Have to add Iteration 5 to our plan, so existing schedule has to be changed</t>
-  </si>
-  <si>
-    <t>Code View Round 1 Results</t>
   </si>
   <si>
     <t>PM Review and Iteration 2 kick off meeting</t>
@@ -294,6 +288,30 @@
   </si>
   <si>
     <t>Nope</t>
+  </si>
+  <si>
+    <t>Code View Round 1 results, and start coding Round 2 view bid</t>
+  </si>
+  <si>
+    <t>Add session authentication to student and admin</t>
+  </si>
+  <si>
+    <t>Code View Round 1 results and debugged integration bugs from Iteration 1</t>
+  </si>
+  <si>
+    <t>Start coding Round 2 view bid</t>
+  </si>
+  <si>
+    <t>Newly discovered integration bugs, didn't have time to start Round 2 view bid yesterday</t>
+  </si>
+  <si>
+    <t>Start coding JSON test cases</t>
+  </si>
+  <si>
+    <t>NIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work on schedule </t>
   </si>
 </sst>
 </file>
@@ -20207,9 +20225,11 @@
         <v>78</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="G3" s="10"/>
+        <v>84</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>94</v>
+      </c>
       <c r="H3" s="10"/>
       <c r="I3" s="9"/>
     </row>
@@ -20228,9 +20248,11 @@
         <v>80</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="G4" s="10"/>
+        <v>85</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>92</v>
+      </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
     </row>
@@ -20249,9 +20271,11 @@
         <v>81</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="G5" s="10"/>
+        <v>86</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
     </row>
@@ -20274,7 +20298,9 @@
       <c r="F6" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="G6" s="10"/>
+      <c r="G6" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="H6" s="10"/>
       <c r="I6" s="9"/>
     </row>
@@ -20293,9 +20319,11 @@
         <v>80</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7" s="10"/>
+        <v>87</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
     </row>
@@ -20314,9 +20342,11 @@
         <v>81</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G8" s="10"/>
+        <v>83</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
     </row>
@@ -20339,7 +20369,9 @@
       <c r="F9" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="G9" s="10"/>
+      <c r="G9" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="H9" s="10"/>
       <c r="I9" s="9"/>
     </row>
@@ -20358,9 +20390,11 @@
         <v>80</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="G10" s="10"/>
+        <v>87</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
@@ -20379,9 +20413,11 @@
         <v>81</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G11" s="10"/>
+        <v>83</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
     </row>
@@ -20404,7 +20440,9 @@
       <c r="F12" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="G12" s="10"/>
+      <c r="G12" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="H12" s="10"/>
       <c r="I12" s="9"/>
     </row>
@@ -20423,9 +20461,11 @@
         <v>80</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="G13" s="10"/>
+        <v>88</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>70</v>
+      </c>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
     </row>
@@ -20444,9 +20484,11 @@
         <v>81</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G14" s="10"/>
+        <v>83</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
     </row>
@@ -20469,7 +20511,9 @@
       <c r="F15" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="G15" s="10"/>
+      <c r="G15" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="H15" s="10"/>
       <c r="I15" s="9"/>
     </row>
@@ -20488,9 +20532,11 @@
         <v>80</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="G16" s="10"/>
+        <v>88</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>92</v>
+      </c>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
     </row>
@@ -20509,9 +20555,11 @@
         <v>81</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G17" s="10"/>
+        <v>83</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
     </row>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Amey/Documents/GitHub/project-g3t4/metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CDA321-15CD-AA46-8939-5D81FEAB23CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2751069B-B65C-2F49-B027-A41705845AAA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="113">
   <si>
     <t>Person</t>
   </si>
@@ -358,6 +358,15 @@
   </si>
   <si>
     <t>Work on integration</t>
+  </si>
+  <si>
+    <t>Group meeting to discuss round 2 code and understanding JSON test cases</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NIL</t>
+  </si>
+  <si>
+    <t>Integration</t>
   </si>
 </sst>
 </file>
@@ -29947,7 +29956,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13"/>
@@ -30048,7 +30057,9 @@
       <c r="C3" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="10"/>
+      <c r="D3" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
@@ -30063,7 +30074,9 @@
       <c r="C4" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="D4" s="10" t="s">
+        <v>110</v>
+      </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
@@ -30078,7 +30091,9 @@
       <c r="C5" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="10"/>
+      <c r="D5" s="10" t="s">
+        <v>111</v>
+      </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
@@ -30095,7 +30110,9 @@
       <c r="C6" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="10" t="s">
+        <v>106</v>
+      </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
@@ -30110,7 +30127,9 @@
       <c r="C7" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="10"/>
+      <c r="D7" s="10" t="s">
+        <v>110</v>
+      </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
@@ -30125,7 +30144,9 @@
       <c r="C8" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="10"/>
+      <c r="D8" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -30142,7 +30163,9 @@
       <c r="C9" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="10"/>
+      <c r="D9" s="10" t="s">
+        <v>106</v>
+      </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
@@ -30157,7 +30180,9 @@
       <c r="C10" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="10"/>
+      <c r="D10" s="10" t="s">
+        <v>110</v>
+      </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
@@ -30172,7 +30197,9 @@
       <c r="C11" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="10"/>
+      <c r="D11" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -30189,7 +30216,9 @@
       <c r="C12" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="10"/>
+      <c r="D12" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -30204,7 +30233,9 @@
       <c r="C13" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="10" t="s">
+        <v>110</v>
+      </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -30219,7 +30250,9 @@
       <c r="C14" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
@@ -30236,7 +30269,9 @@
       <c r="C15" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="10" t="s">
+        <v>98</v>
+      </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
@@ -30251,7 +30286,9 @@
       <c r="C16" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D16" s="10"/>
+      <c r="D16" s="10" t="s">
+        <v>110</v>
+      </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -30266,7 +30303,9 @@
       <c r="C17" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="10"/>
+      <c r="D17" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Amey/Documents/GitHub/project-g3t4/metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2751069B-B65C-2F49-B027-A41705845AAA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CAB210-14FF-9E48-B559-8808FEA087BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="123">
   <si>
     <t>Person</t>
   </si>
@@ -367,6 +367,36 @@
   </si>
   <si>
     <t>Integration</t>
+  </si>
+  <si>
+    <t>Team meeting - knowledge sharing and test case discussion + changed bidding_round table structure and integrate code</t>
+  </si>
+  <si>
+    <t>Create tables to store unsuccessful bids and integrate code</t>
+  </si>
+  <si>
+    <t>Change in table structure affects many different pages</t>
+  </si>
+  <si>
+    <t>Manual testing for round 2</t>
+  </si>
+  <si>
+    <t>Group meeting, allocation of tasks, start manual testing for round 1</t>
+  </si>
+  <si>
+    <t>Yes, we found errors while performing testing and took time to figure out thesolution as we were not the ones who had written the code for that</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group meeting, start making slides for week 9 review </t>
+  </si>
+  <si>
+    <t>Make schedule iteration 5 and continue working on slides for week 9 review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting, discussed JSON test cases with everyone, told them how it works </t>
+  </si>
+  <si>
+    <t xml:space="preserve">continue working on JSON test cases </t>
   </si>
 </sst>
 </file>
@@ -29956,7 +29986,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13"/>
@@ -30060,7 +30090,9 @@
       <c r="D3" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="10"/>
+      <c r="E3" s="10" t="s">
+        <v>117</v>
+      </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -30077,7 +30109,9 @@
       <c r="D4" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E4" s="10"/>
+      <c r="E4" s="10" t="s">
+        <v>116</v>
+      </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="9"/>
@@ -30094,7 +30128,9 @@
       <c r="D5" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="10" t="s">
+        <v>118</v>
+      </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="9"/>
@@ -30113,7 +30149,9 @@
       <c r="D6" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="10"/>
+      <c r="E6" s="10" t="s">
+        <v>113</v>
+      </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -30130,7 +30168,9 @@
       <c r="D7" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="10"/>
+      <c r="E7" s="10" t="s">
+        <v>114</v>
+      </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="9"/>
@@ -30147,7 +30187,9 @@
       <c r="D8" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="10"/>
+      <c r="E8" s="10" t="s">
+        <v>115</v>
+      </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="9"/>
@@ -30166,7 +30208,9 @@
       <c r="D9" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="E9" s="10"/>
+      <c r="E9" s="10" t="s">
+        <v>113</v>
+      </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -30183,7 +30227,9 @@
       <c r="D10" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E10" s="10"/>
+      <c r="E10" s="10" t="s">
+        <v>114</v>
+      </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="9"/>
@@ -30200,7 +30246,9 @@
       <c r="D11" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="10"/>
+      <c r="E11" s="10" t="s">
+        <v>115</v>
+      </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="9"/>
@@ -30219,7 +30267,9 @@
       <c r="D12" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="E12" s="10"/>
+      <c r="E12" s="10" t="s">
+        <v>119</v>
+      </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -30236,7 +30286,9 @@
       <c r="D13" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E13" s="10"/>
+      <c r="E13" s="10" t="s">
+        <v>120</v>
+      </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="9"/>
@@ -30253,7 +30305,9 @@
       <c r="D14" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E14" s="10"/>
+      <c r="E14" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="9"/>
@@ -30272,7 +30326,9 @@
       <c r="D15" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="10"/>
+      <c r="E15" s="10" t="s">
+        <v>121</v>
+      </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="11"/>
@@ -30289,7 +30345,9 @@
       <c r="D16" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E16" s="10"/>
+      <c r="E16" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="11"/>
@@ -30306,7 +30364,9 @@
       <c r="D17" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E17" s="10"/>
+      <c r="E17" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="11"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Amey/Documents/GitHub/project-g3t4/metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CAB210-14FF-9E48-B559-8808FEA087BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB06976-7119-1C40-BC62-DE7D88A1F3DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 5" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="128">
   <si>
     <t>Person</t>
   </si>
@@ -378,9 +378,6 @@
     <t>Change in table structure affects many different pages</t>
   </si>
   <si>
-    <t>Manual testing for round 2</t>
-  </si>
-  <si>
     <t>Group meeting, allocation of tasks, start manual testing for round 1</t>
   </si>
   <si>
@@ -397,6 +394,24 @@
   </si>
   <si>
     <t xml:space="preserve">continue working on JSON test cases </t>
+  </si>
+  <si>
+    <t>Manual testing for round 1 and round 2</t>
+  </si>
+  <si>
+    <t>Manual testing for round 1 &amp; 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finish round 2 testing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, we came through some errors in the code </t>
+  </si>
+  <si>
+    <t>Fix bugs found during manual testing</t>
+  </si>
+  <si>
+    <t>JSOn test cases</t>
   </si>
 </sst>
 </file>
@@ -29986,7 +30001,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13"/>
@@ -30091,9 +30106,11 @@
         <v>93</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="F3" s="10"/>
+        <v>116</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="9"/>
@@ -30110,9 +30127,11 @@
         <v>110</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="F4" s="10"/>
+        <v>123</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>124</v>
+      </c>
       <c r="G4" s="10"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
@@ -30129,9 +30148,11 @@
         <v>111</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="F5" s="10"/>
+        <v>117</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>125</v>
+      </c>
       <c r="G5" s="10"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
@@ -30152,7 +30173,9 @@
       <c r="E6" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="F6" s="10"/>
+      <c r="F6" s="10" t="s">
+        <v>114</v>
+      </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="9"/>
@@ -30171,7 +30194,9 @@
       <c r="E7" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="F7" s="10"/>
+      <c r="F7" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="G7" s="10"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
@@ -30190,7 +30215,9 @@
       <c r="E8" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="F8" s="10"/>
+      <c r="F8" s="10" t="s">
+        <v>125</v>
+      </c>
       <c r="G8" s="10"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -30211,7 +30238,9 @@
       <c r="E9" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="F9" s="10"/>
+      <c r="F9" s="10" t="s">
+        <v>114</v>
+      </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="9"/>
@@ -30230,7 +30259,9 @@
       <c r="E10" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="F10" s="10"/>
+      <c r="F10" s="10" t="s">
+        <v>126</v>
+      </c>
       <c r="G10" s="10"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -30249,7 +30280,9 @@
       <c r="E11" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="F11" s="10"/>
+      <c r="F11" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="G11" s="10"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -30268,9 +30301,11 @@
         <v>112</v>
       </c>
       <c r="E12" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="9"/>
@@ -30287,9 +30322,11 @@
         <v>110</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="F13" s="10"/>
+        <v>119</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="G13" s="10"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
@@ -30308,7 +30345,9 @@
       <c r="E14" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="10"/>
+      <c r="F14" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="G14" s="10"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
@@ -30327,9 +30366,11 @@
         <v>98</v>
       </c>
       <c r="E15" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="11"/>
       <c r="I15" s="9"/>
@@ -30346,9 +30387,11 @@
         <v>110</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="F16" s="10"/>
+        <v>121</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>127</v>
+      </c>
       <c r="G16" s="10"/>
       <c r="H16" s="11"/>
       <c r="I16" s="9"/>
@@ -30367,7 +30410,9 @@
       <c r="E17" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="10"/>
+      <c r="F17" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="G17" s="10"/>
       <c r="H17" s="11"/>
       <c r="I17" s="9"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian Goh\Documents\GitHub\project-g3t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00D1D9D-D2F4-4EBE-A496-376B6A2312FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA176525-206A-40AA-BBF1-86B6624935F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="134">
   <si>
     <t>Person</t>
   </si>
@@ -421,6 +421,15 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Non working day (overseas)</t>
+  </si>
+  <si>
+    <t>Code start/stop JSON</t>
+  </si>
+  <si>
+    <t>Code JSON dump and JSON student bidding</t>
   </si>
 </sst>
 </file>
@@ -30009,8 +30018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{963B52BD-CE04-9F4F-855D-85F84DB88E62}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -30126,7 +30135,9 @@
       <c r="H3" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="I3" s="9"/>
+      <c r="I3" s="9" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="17"/>
@@ -30151,7 +30162,9 @@
       <c r="H4" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="I4" s="9"/>
+      <c r="I4" s="9" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17"/>
@@ -30176,7 +30189,9 @@
       <c r="H5" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="I5" s="9"/>
+      <c r="I5" s="9" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
@@ -30203,7 +30218,9 @@
       <c r="H6" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="I6" s="9"/>
+      <c r="I6" s="9" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="17"/>
@@ -30228,7 +30245,9 @@
       <c r="H7" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="I7" s="9"/>
+      <c r="I7" s="9" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="17"/>
@@ -30253,7 +30272,9 @@
       <c r="H8" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="I8" s="9"/>
+      <c r="I8" s="9" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
@@ -30280,7 +30301,9 @@
       <c r="H9" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="I9" s="9"/>
+      <c r="I9" s="9" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="17"/>
@@ -30305,7 +30328,9 @@
       <c r="H10" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="I10" s="9"/>
+      <c r="I10" s="9" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="17"/>
@@ -30330,7 +30355,9 @@
       <c r="H11" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="I11" s="9"/>
+      <c r="I11" s="9" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="16" t="s">
@@ -30357,7 +30384,9 @@
       <c r="H12" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="I12" s="9"/>
+      <c r="I12" s="9" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="17"/>
@@ -30382,7 +30411,9 @@
       <c r="H13" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="I13" s="9"/>
+      <c r="I13" s="9" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="17"/>
@@ -30407,7 +30438,9 @@
       <c r="H14" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="I14" s="9"/>
+      <c r="I14" s="9" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="16" t="s">
@@ -30434,7 +30467,9 @@
       <c r="H15" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="I15" s="9"/>
+      <c r="I15" s="9" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="17"/>
@@ -30459,7 +30494,9 @@
       <c r="H16" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="I16" s="9"/>
+      <c r="I16" s="9" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="17"/>
@@ -30484,7 +30521,9 @@
       <c r="H17" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="I17" s="9"/>
+      <c r="I17" s="9" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g3t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB5337A-B744-4C19-A069-B31A7BB7371F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C57FD2-55E6-4591-BC8E-A8D5894F7F02}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="144">
   <si>
     <t>Person</t>
   </si>
@@ -456,6 +456,12 @@
   <si>
     <t>Work on JSON test cases</t>
   </si>
+  <si>
+    <t>Week: 14 October 2019 to 20 October 2019</t>
+  </si>
+  <si>
+    <t>Work on JSON test cases and manual testing</t>
+  </si>
 </sst>
 </file>
 
@@ -20268,7 +20274,7 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="F8" sqref="F8"/>
     </sheetView>
@@ -30049,7 +30055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{963B52BD-CE04-9F4F-855D-85F84DB88E62}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -39829,7 +39835,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -39852,7 +39858,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
@@ -39939,7 +39945,9 @@
       <c r="F3" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="G3" s="10"/>
+      <c r="G3" s="10" t="s">
+        <v>141</v>
+      </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
     </row>
@@ -39960,7 +39968,9 @@
       <c r="F4" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="G4" s="10"/>
+      <c r="G4" s="10" t="s">
+        <v>143</v>
+      </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
     </row>
@@ -39981,7 +39991,9 @@
       <c r="F5" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="G5" s="10"/>
+      <c r="G5" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
     </row>
@@ -40004,7 +40016,9 @@
       <c r="F6" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="G6" s="10"/>
+      <c r="G6" s="10" t="s">
+        <v>141</v>
+      </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
     </row>
@@ -40025,7 +40039,9 @@
       <c r="F7" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="G7" s="10"/>
+      <c r="G7" s="10" t="s">
+        <v>143</v>
+      </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
     </row>
@@ -40046,7 +40062,9 @@
       <c r="F8" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="G8" s="10"/>
+      <c r="G8" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
     </row>
@@ -40069,7 +40087,9 @@
       <c r="F9" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="G9" s="10"/>
+      <c r="G9" s="10" t="s">
+        <v>141</v>
+      </c>
       <c r="H9" s="10"/>
       <c r="I9" s="9"/>
     </row>
@@ -40090,7 +40110,9 @@
       <c r="F10" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="G10" s="10"/>
+      <c r="G10" s="10" t="s">
+        <v>143</v>
+      </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
@@ -40111,7 +40133,9 @@
       <c r="F11" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="G11" s="10"/>
+      <c r="G11" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
     </row>
@@ -40134,7 +40158,9 @@
       <c r="F12" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="G12" s="10"/>
+      <c r="G12" s="10" t="s">
+        <v>141</v>
+      </c>
       <c r="H12" s="10"/>
       <c r="I12" s="9"/>
     </row>
@@ -40155,7 +40181,9 @@
       <c r="F13" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="G13" s="10"/>
+      <c r="G13" s="10" t="s">
+        <v>143</v>
+      </c>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
     </row>
@@ -40176,7 +40204,9 @@
       <c r="F14" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="G14" s="10"/>
+      <c r="G14" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
     </row>
@@ -40199,7 +40229,9 @@
       <c r="F15" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="G15" s="10"/>
+      <c r="G15" s="10" t="s">
+        <v>141</v>
+      </c>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
     </row>
@@ -40220,7 +40252,9 @@
       <c r="F16" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="G16" s="10"/>
+      <c r="G16" s="10" t="s">
+        <v>143</v>
+      </c>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
     </row>
@@ -40241,7 +40275,9 @@
       <c r="F17" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="G17" s="10"/>
+      <c r="G17" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="H17" s="11"/>
       <c r="I17" s="9"/>
     </row>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g3t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C57FD2-55E6-4591-BC8E-A8D5894F7F02}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68EC689-42CE-4772-95C8-C4B795552E85}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="148">
   <si>
     <t>Person</t>
   </si>
@@ -462,6 +462,19 @@
   <si>
     <t>Work on JSON test cases and manual testing</t>
   </si>
+  <si>
+    <t>Integrate changes requested in online review (combined info in student home page)</t>
+  </si>
+  <si>
+    <t>Integrate changes requested in online review (combined info in student home page)
+Code student timetable feature</t>
+  </si>
+  <si>
+    <t>Review JSON test cases</t>
+  </si>
+  <si>
+    <t>Code search bid</t>
+  </si>
 </sst>
 </file>
 
@@ -39834,8 +39847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F979FB9-4A6E-4CC1-B727-625523231E44}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -39948,10 +39961,12 @@
       <c r="G3" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="H3" s="9"/>
+      <c r="H3" s="9" t="s">
+        <v>98</v>
+      </c>
       <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" ht="70.5" x14ac:dyDescent="0.35">
       <c r="A4" s="18"/>
       <c r="B4" s="4" t="s">
         <v>13</v>
@@ -39971,7 +39986,9 @@
       <c r="G4" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="H4" s="9"/>
+      <c r="H4" s="9" t="s">
+        <v>145</v>
+      </c>
       <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:26" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -39994,7 +40011,9 @@
       <c r="G5" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H5" s="9"/>
+      <c r="H5" s="9" t="s">
+        <v>93</v>
+      </c>
       <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -40019,7 +40038,9 @@
       <c r="G6" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="H6" s="9"/>
+      <c r="H6" s="9" t="s">
+        <v>98</v>
+      </c>
       <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -40042,7 +40063,9 @@
       <c r="G7" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="H7" s="9"/>
+      <c r="H7" s="9" t="s">
+        <v>144</v>
+      </c>
       <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:26" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -40065,7 +40088,9 @@
       <c r="G8" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H8" s="9"/>
+      <c r="H8" s="9" t="s">
+        <v>93</v>
+      </c>
       <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -40090,7 +40115,9 @@
       <c r="G9" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="H9" s="10"/>
+      <c r="H9" s="10" t="s">
+        <v>146</v>
+      </c>
       <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -40113,7 +40140,9 @@
       <c r="G10" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="H10" s="9"/>
+      <c r="H10" s="9" t="s">
+        <v>147</v>
+      </c>
       <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:26" ht="84" customHeight="1" x14ac:dyDescent="0.35">
@@ -40136,7 +40165,9 @@
       <c r="G11" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H11" s="9"/>
+      <c r="H11" s="9" t="s">
+        <v>93</v>
+      </c>
       <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -40161,7 +40192,9 @@
       <c r="G12" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="H12" s="10"/>
+      <c r="H12" s="10" t="s">
+        <v>143</v>
+      </c>
       <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -40184,7 +40217,9 @@
       <c r="G13" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="H13" s="9"/>
+      <c r="H13" s="9" t="s">
+        <v>147</v>
+      </c>
       <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:26" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -40207,7 +40242,9 @@
       <c r="G14" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H14" s="9"/>
+      <c r="H14" s="9" t="s">
+        <v>93</v>
+      </c>
       <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -40232,7 +40269,9 @@
       <c r="G15" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="H15" s="9"/>
+      <c r="H15" s="10" t="s">
+        <v>146</v>
+      </c>
       <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -40255,7 +40294,9 @@
       <c r="G16" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="H16" s="9"/>
+      <c r="H16" s="9" t="s">
+        <v>147</v>
+      </c>
       <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -40278,7 +40319,9 @@
       <c r="G17" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H17" s="11"/>
+      <c r="H17" s="9" t="s">
+        <v>93</v>
+      </c>
       <c r="I17" s="9"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g3t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC611CE3-24C6-46CA-9B04-79CAF42F688A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460DB595-41A8-4FD0-B373-4D4D2D6D6B13}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 5" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="151">
   <si>
     <t>Person</t>
   </si>
@@ -482,6 +482,9 @@
   <si>
     <t>Code student timetable feature</t>
   </si>
+  <si>
+    <t>Review test cases and conduct JSON testing</t>
+  </si>
 </sst>
 </file>
 
@@ -39855,8 +39858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F979FB9-4A6E-4CC1-B727-625523231E44}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -49634,7 +49637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8CEA976-C5FB-46E3-A08E-9BBA286384EE}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -49733,7 +49736,9 @@
       <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="9"/>
+      <c r="C3" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
@@ -49741,12 +49746,14 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" ht="28.5" x14ac:dyDescent="0.35">
       <c r="A4" s="19"/>
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="10" t="s">
+        <v>150</v>
+      </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
@@ -49759,7 +49766,9 @@
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
@@ -49774,7 +49783,9 @@
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
@@ -49787,7 +49798,9 @@
       <c r="B7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="10" t="s">
+        <v>150</v>
+      </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -49800,7 +49813,9 @@
       <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
@@ -49815,7 +49830,9 @@
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -49828,7 +49845,9 @@
       <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="10"/>
+      <c r="C10" s="10" t="s">
+        <v>150</v>
+      </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -49841,7 +49860,9 @@
       <c r="B11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="10"/>
+      <c r="C11" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
@@ -49856,7 +49877,9 @@
       <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="10"/>
+      <c r="C12" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
@@ -49869,7 +49892,9 @@
       <c r="B13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="10" t="s">
+        <v>150</v>
+      </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -49882,7 +49907,9 @@
       <c r="B14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -49897,7 +49924,9 @@
       <c r="B15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="10"/>
+      <c r="C15" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -49910,7 +49939,9 @@
       <c r="B16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="10"/>
+      <c r="C16" s="10" t="s">
+        <v>150</v>
+      </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
@@ -49923,7 +49954,9 @@
       <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="10"/>
+      <c r="C17" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g3t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460DB595-41A8-4FD0-B373-4D4D2D6D6B13}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36C9EEA-AAA7-49B6-8FB7-EC0550CCEBDF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="152">
   <si>
     <t>Person</t>
   </si>
@@ -485,6 +485,9 @@
   <si>
     <t>Review test cases and conduct JSON testing</t>
   </si>
+  <si>
+    <t>Continue JSON testing</t>
+  </si>
 </sst>
 </file>
 
@@ -39858,8 +39861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F979FB9-4A6E-4CC1-B727-625523231E44}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -49637,8 +49640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8CEA976-C5FB-46E3-A08E-9BBA286384EE}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -49739,7 +49742,9 @@
       <c r="C3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="10"/>
+      <c r="D3" s="10" t="s">
+        <v>150</v>
+      </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
@@ -49754,7 +49759,9 @@
       <c r="C4" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="D4" s="10" t="s">
+        <v>147</v>
+      </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
@@ -49769,7 +49776,9 @@
       <c r="C5" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="10"/>
+      <c r="D5" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
@@ -49786,7 +49795,9 @@
       <c r="C6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="10" t="s">
+        <v>150</v>
+      </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
@@ -49801,7 +49812,9 @@
       <c r="C7" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="D7" s="10"/>
+      <c r="D7" s="10" t="s">
+        <v>151</v>
+      </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
@@ -49816,7 +49829,9 @@
       <c r="C8" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="10"/>
+      <c r="D8" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -49833,7 +49848,9 @@
       <c r="C9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="10"/>
+      <c r="D9" s="10" t="s">
+        <v>150</v>
+      </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
@@ -49848,7 +49865,9 @@
       <c r="C10" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="D10" s="10"/>
+      <c r="D10" s="10" t="s">
+        <v>151</v>
+      </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
@@ -49863,7 +49882,9 @@
       <c r="C11" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="10"/>
+      <c r="D11" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -49880,7 +49901,9 @@
       <c r="C12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="10"/>
+      <c r="D12" s="10" t="s">
+        <v>150</v>
+      </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -49895,7 +49918,9 @@
       <c r="C13" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="10" t="s">
+        <v>151</v>
+      </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -49910,7 +49935,9 @@
       <c r="C14" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
@@ -49927,7 +49954,9 @@
       <c r="C15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="10" t="s">
+        <v>150</v>
+      </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
@@ -49942,7 +49971,9 @@
       <c r="C16" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="D16" s="10"/>
+      <c r="D16" s="10" t="s">
+        <v>147</v>
+      </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -49957,7 +49988,9 @@
       <c r="C17" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="10"/>
+      <c r="D17" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g3t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36C9EEA-AAA7-49B6-8FB7-EC0550CCEBDF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8667042-37B6-4C45-92DD-FB6268D768DC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="156">
   <si>
     <t>Person</t>
   </si>
@@ -488,6 +488,18 @@
   <si>
     <t>Continue JSON testing</t>
   </si>
+  <si>
+    <t>Continue code search bid</t>
+  </si>
+  <si>
+    <t>Continue test cases and JSON testing</t>
+  </si>
+  <si>
+    <t>JSON testing</t>
+  </si>
+  <si>
+    <t>JSON testing &amp; Debug code</t>
+  </si>
 </sst>
 </file>
 
@@ -39861,7 +39873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F979FB9-4A6E-4CC1-B727-625523231E44}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -49640,8 +49652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8CEA976-C5FB-46E3-A08E-9BBA286384EE}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:D14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -49745,7 +49757,9 @@
       <c r="D3" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="E3" s="10"/>
+      <c r="E3" s="10" t="s">
+        <v>147</v>
+      </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="9"/>
@@ -49762,7 +49776,9 @@
       <c r="D4" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="E4" s="10"/>
+      <c r="E4" s="10" t="s">
+        <v>152</v>
+      </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="9"/>
@@ -49779,7 +49795,9 @@
       <c r="D5" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="9"/>
@@ -49798,7 +49816,9 @@
       <c r="D6" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="E6" s="10"/>
+      <c r="E6" s="10" t="s">
+        <v>151</v>
+      </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="9"/>
@@ -49815,7 +49835,9 @@
       <c r="D7" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="E7" s="10"/>
+      <c r="E7" s="10" t="s">
+        <v>153</v>
+      </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="9"/>
@@ -49832,7 +49854,9 @@
       <c r="D8" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="10"/>
+      <c r="E8" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="9"/>
@@ -49851,7 +49875,9 @@
       <c r="D9" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="E9" s="10"/>
+      <c r="E9" s="10" t="s">
+        <v>154</v>
+      </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -49868,7 +49894,9 @@
       <c r="D10" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="E10" s="10"/>
+      <c r="E10" s="10" t="s">
+        <v>151</v>
+      </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="9"/>
@@ -49885,7 +49913,9 @@
       <c r="D11" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="10"/>
+      <c r="E11" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="9"/>
@@ -49904,7 +49934,9 @@
       <c r="D12" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="E12" s="10"/>
+      <c r="E12" s="10" t="s">
+        <v>155</v>
+      </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -49919,9 +49951,11 @@
         <v>150</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E13" s="10"/>
+        <v>155</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>153</v>
+      </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="9"/>
@@ -49938,7 +49972,9 @@
       <c r="D14" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E14" s="10"/>
+      <c r="E14" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="9"/>
@@ -49957,7 +49993,9 @@
       <c r="D15" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="E15" s="10"/>
+      <c r="E15" s="10" t="s">
+        <v>147</v>
+      </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
@@ -49974,7 +50012,9 @@
       <c r="D16" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="E16" s="10"/>
+      <c r="E16" s="10" t="s">
+        <v>152</v>
+      </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="9"/>
@@ -49991,7 +50031,9 @@
       <c r="D17" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E17" s="10"/>
+      <c r="E17" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="9"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g3t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8667042-37B6-4C45-92DD-FB6268D768DC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD163B4-93C8-4AAB-9A0C-70CC2B38EDB3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="161">
   <si>
     <t>Person</t>
   </si>
@@ -489,9 +489,6 @@
     <t>Continue JSON testing</t>
   </si>
   <si>
-    <t>Continue code search bid</t>
-  </si>
-  <si>
     <t>Continue test cases and JSON testing</t>
   </si>
   <si>
@@ -499,6 +496,24 @@
   </si>
   <si>
     <t>JSON testing &amp; Debug code</t>
+  </si>
+  <si>
+    <t>Continue code search bid, Debugging</t>
+  </si>
+  <si>
+    <t>Test cases and JSON testing</t>
+  </si>
+  <si>
+    <t>Continue code search bid, debugging</t>
+  </si>
+  <si>
+    <t>Code search bid, debugging</t>
+  </si>
+  <si>
+    <t>Code search bid, Debugging</t>
+  </si>
+  <si>
+    <t>Review test cases</t>
   </si>
 </sst>
 </file>
@@ -10529,7 +10544,7 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
@@ -30094,7 +30109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{963B52BD-CE04-9F4F-855D-85F84DB88E62}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -49652,8 +49667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8CEA976-C5FB-46E3-A08E-9BBA286384EE}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -49760,12 +49775,14 @@
       <c r="E3" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="F3" s="10"/>
+      <c r="F3" s="10" t="s">
+        <v>159</v>
+      </c>
       <c r="G3" s="10"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="1:26" ht="28.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="19"/>
       <c r="B4" s="4" t="s">
         <v>13</v>
@@ -49777,9 +49794,11 @@
         <v>147</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="F4" s="10"/>
+        <v>155</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>160</v>
+      </c>
       <c r="G4" s="10"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
@@ -49798,7 +49817,9 @@
       <c r="E5" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="G5" s="10"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
@@ -49819,7 +49840,9 @@
       <c r="E6" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="F6" s="10"/>
+      <c r="F6" s="10" t="s">
+        <v>152</v>
+      </c>
       <c r="G6" s="10"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -49836,9 +49859,11 @@
         <v>151</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="F7" s="10"/>
+        <v>152</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>160</v>
+      </c>
       <c r="G7" s="10"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
@@ -49857,7 +49882,9 @@
       <c r="E8" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F8" s="10"/>
+      <c r="F8" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="G8" s="10"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -49876,9 +49903,11 @@
         <v>150</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F9" s="10"/>
+        <v>153</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>153</v>
+      </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="9"/>
@@ -49897,7 +49926,9 @@
       <c r="E10" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="F10" s="10"/>
+      <c r="F10" s="10" t="s">
+        <v>160</v>
+      </c>
       <c r="G10" s="10"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -49916,7 +49947,9 @@
       <c r="E11" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="10"/>
+      <c r="F11" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="G11" s="10"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -49935,9 +49968,11 @@
         <v>150</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="F12" s="10"/>
+        <v>154</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>156</v>
+      </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="9"/>
@@ -49951,12 +49986,14 @@
         <v>150</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="F13" s="10"/>
+        <v>152</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>160</v>
+      </c>
       <c r="G13" s="10"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
@@ -49975,7 +50012,9 @@
       <c r="E14" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="10"/>
+      <c r="F14" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="G14" s="10"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
@@ -49996,7 +50035,9 @@
       <c r="E15" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="F15" s="10"/>
+      <c r="F15" s="10" t="s">
+        <v>158</v>
+      </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="9"/>
@@ -50013,9 +50054,11 @@
         <v>147</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="F16" s="10"/>
+        <v>157</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>160</v>
+      </c>
       <c r="G16" s="10"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
@@ -50034,7 +50077,9 @@
       <c r="E17" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="10"/>
+      <c r="F17" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="G17" s="10"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g3t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD163B4-93C8-4AAB-9A0C-70CC2B38EDB3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84782737-9757-4BEC-AA53-057E501AC956}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="163">
   <si>
     <t>Person</t>
   </si>
@@ -515,6 +515,12 @@
   <si>
     <t>Review test cases</t>
   </si>
+  <si>
+    <t>Continue reviewing test cases</t>
+  </si>
+  <si>
+    <t>JSON testing &amp; debugging</t>
+  </si>
 </sst>
 </file>
 
@@ -49668,7 +49674,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -49778,7 +49784,9 @@
       <c r="F3" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="G3" s="10"/>
+      <c r="G3" s="10" t="s">
+        <v>162</v>
+      </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
     </row>
@@ -49797,9 +49805,11 @@
         <v>155</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="G4" s="10"/>
+        <v>162</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
     </row>
@@ -49820,7 +49830,9 @@
       <c r="F5" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="G5" s="10"/>
+      <c r="G5" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
     </row>
@@ -49843,7 +49855,9 @@
       <c r="F6" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="G6" s="10"/>
+      <c r="G6" s="10" t="s">
+        <v>160</v>
+      </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
     </row>
@@ -49864,7 +49878,9 @@
       <c r="F7" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="G7" s="10"/>
+      <c r="G7" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
     </row>
@@ -49885,7 +49901,9 @@
       <c r="F8" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="G8" s="10"/>
+      <c r="G8" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
     </row>
@@ -49908,7 +49926,9 @@
       <c r="F9" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="G9" s="10"/>
+      <c r="G9" s="10" t="s">
+        <v>160</v>
+      </c>
       <c r="H9" s="10"/>
       <c r="I9" s="9"/>
     </row>
@@ -49929,7 +49949,9 @@
       <c r="F10" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="G10" s="10"/>
+      <c r="G10" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
@@ -49950,7 +49972,9 @@
       <c r="F11" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="G11" s="10"/>
+      <c r="G11" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
     </row>
@@ -49973,7 +49997,9 @@
       <c r="F12" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="G12" s="10"/>
+      <c r="G12" s="10" t="s">
+        <v>160</v>
+      </c>
       <c r="H12" s="10"/>
       <c r="I12" s="9"/>
     </row>
@@ -49994,7 +50020,9 @@
       <c r="F13" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="G13" s="10"/>
+      <c r="G13" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
     </row>
@@ -50015,7 +50043,9 @@
       <c r="F14" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="G14" s="10"/>
+      <c r="G14" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
     </row>
@@ -50038,7 +50068,9 @@
       <c r="F15" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="G15" s="10"/>
+      <c r="G15" s="10" t="s">
+        <v>162</v>
+      </c>
       <c r="H15" s="10"/>
       <c r="I15" s="9"/>
     </row>
@@ -50057,9 +50089,11 @@
         <v>157</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="G16" s="10"/>
+        <v>162</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
     </row>
@@ -50080,7 +50114,9 @@
       <c r="F17" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="G17" s="10"/>
+      <c r="G17" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
     </row>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g3t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84782737-9757-4BEC-AA53-057E501AC956}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FEAA854-AB78-4941-8CF7-CDE4604B0204}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="163">
   <si>
     <t>Person</t>
   </si>
@@ -49674,7 +49674,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -49787,7 +49787,9 @@
       <c r="G3" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="H3" s="9"/>
+      <c r="H3" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:26" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -49810,7 +49812,9 @@
       <c r="G4" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="H4" s="9"/>
+      <c r="H4" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:26" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -49833,7 +49837,9 @@
       <c r="G5" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H5" s="9"/>
+      <c r="H5" s="9" t="s">
+        <v>93</v>
+      </c>
       <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -49858,7 +49864,9 @@
       <c r="G6" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="H6" s="9"/>
+      <c r="H6" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -49881,7 +49889,9 @@
       <c r="G7" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="H7" s="9"/>
+      <c r="H7" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:26" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -49904,7 +49914,9 @@
       <c r="G8" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H8" s="9"/>
+      <c r="H8" s="9" t="s">
+        <v>93</v>
+      </c>
       <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -49929,7 +49941,9 @@
       <c r="G9" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="H9" s="10"/>
+      <c r="H9" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -49952,7 +49966,9 @@
       <c r="G10" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="H10" s="9"/>
+      <c r="H10" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:26" ht="84" customHeight="1" x14ac:dyDescent="0.35">
@@ -49975,7 +49991,9 @@
       <c r="G11" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H11" s="9"/>
+      <c r="H11" s="9" t="s">
+        <v>93</v>
+      </c>
       <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -50000,7 +50018,9 @@
       <c r="G12" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="H12" s="10"/>
+      <c r="H12" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -50023,7 +50043,9 @@
       <c r="G13" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="H13" s="9"/>
+      <c r="H13" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:26" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -50046,7 +50068,9 @@
       <c r="G14" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H14" s="9"/>
+      <c r="H14" s="9" t="s">
+        <v>93</v>
+      </c>
       <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -50071,7 +50095,9 @@
       <c r="G15" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="H15" s="10"/>
+      <c r="H15" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -50094,7 +50120,9 @@
       <c r="G16" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="H16" s="9"/>
+      <c r="H16" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -50117,7 +50145,9 @@
       <c r="G17" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H17" s="9"/>
+      <c r="H17" s="9" t="s">
+        <v>93</v>
+      </c>
       <c r="I17" s="9"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g3t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FEAA854-AB78-4941-8CF7-CDE4604B0204}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188E9399-EF1C-4BCE-B556-82D3CE2F8C60}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="163">
   <si>
     <t>Person</t>
   </si>
@@ -49673,8 +49673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8CEA976-C5FB-46E3-A08E-9BBA286384EE}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -49790,7 +49790,9 @@
       <c r="H3" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="I3" s="9"/>
+      <c r="I3" s="9" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="19"/>
@@ -49815,7 +49817,9 @@
       <c r="H4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="9"/>
+      <c r="I4" s="9" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="19"/>
@@ -49840,7 +49844,9 @@
       <c r="H5" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="I5" s="9"/>
+      <c r="I5" s="9" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
@@ -49867,7 +49873,9 @@
       <c r="H6" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="I6" s="9"/>
+      <c r="I6" s="9" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="19"/>
@@ -49892,7 +49900,9 @@
       <c r="H7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="9"/>
+      <c r="I7" s="9" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="19"/>
@@ -49917,7 +49927,9 @@
       <c r="H8" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="I8" s="9"/>
+      <c r="I8" s="9" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
@@ -49944,7 +49956,9 @@
       <c r="H9" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="I9" s="9"/>
+      <c r="I9" s="9" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="19"/>
@@ -49969,7 +49983,9 @@
       <c r="H10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="9"/>
+      <c r="I10" s="9" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="19"/>
@@ -49994,7 +50010,9 @@
       <c r="H11" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="I11" s="9"/>
+      <c r="I11" s="9" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
@@ -50021,7 +50039,9 @@
       <c r="H12" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="I12" s="9"/>
+      <c r="I12" s="9" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="19"/>
@@ -50046,7 +50066,9 @@
       <c r="H13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="9"/>
+      <c r="I13" s="9" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="19"/>
@@ -50071,7 +50093,9 @@
       <c r="H14" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="I14" s="9"/>
+      <c r="I14" s="9" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
@@ -50098,7 +50122,9 @@
       <c r="H15" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="I15" s="9"/>
+      <c r="I15" s="9" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="19"/>
@@ -50123,7 +50149,9 @@
       <c r="H16" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="9"/>
+      <c r="I16" s="9" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="19"/>
@@ -50148,7 +50176,9 @@
       <c r="H17" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="I17" s="9"/>
+      <c r="I17" s="9" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
